--- a/work-in-progress/Peppol Code Lists - Document types v7.3.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v7.3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\edec-codelists\work-in-progress\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07F1534-85FD-4341-A168-15C5CBBAB7C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="18915" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="4" r:id="rId1"/>
@@ -20,12 +26,12 @@
     <definedName name="_ftnref3" localSheetId="0">'Document Type'!$A$3</definedName>
     <definedName name="_ftnref4" localSheetId="0">'Document Type'!$A$4</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="275">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -824,12 +830,54 @@
   <si>
     <t>7.2</t>
   </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>urn:kosit:names:spec:peppol-reporting:schema:xsd:Reporting-1::APData##Reporting::1.0</t>
+  </si>
+  <si>
+    <t>TICC-155</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:kosit:profile:reporting:1.0</t>
+  </si>
+  <si>
+    <t>German Peppol Usage Evaluation AP</t>
+  </si>
+  <si>
+    <t>EHF Advanced Order Initiation 3.0 (invalid)</t>
+  </si>
+  <si>
+    <t>EHF Advanced Order Change 3.0 (invalid)</t>
+  </si>
+  <si>
+    <t>EHF Advanced Order Cancellation 3.0 (invalid)</t>
+  </si>
+  <si>
+    <t>EHF Advanced Order Response 3.0 (invalid)</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Order-2::Order##urn:fdc:peppol.eu:poacc:trns:order:3:extended:urn:fdc:anskaffelser.no:2019:ehf:spec:3.0::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:OrderChange-2::OrderChange##urn:fdc:anskaffelser.no:2019:ehf:spec:adv-order-change:3.0::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:OrderCancellation-2::OrderCancellation##urn:fdc:anskaffelser.no:2019:ehf:spec:adv-order-cancellation:3.0::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:OrderResponse-2::OrderResponse##urn:fdc:peppol.eu:poacc:trns:order_response:3:extended:urn:fdc:anskaffelser.no:2019:ehf:spec:3.0::2.2</t>
+  </si>
+  <si>
+    <t>TICC-156</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,7 +955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -954,10 +1002,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1029,6 +1080,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1353,30 +1412,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="103.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="47.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="103.109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="3"/>
-    <col min="11" max="11" width="70.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="3"/>
+    <col min="5" max="5" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.44140625" style="3"/>
+    <col min="11" max="11" width="70.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="45">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
@@ -1411,7 +1470,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45">
+    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1445,7 +1504,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45">
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1479,7 +1538,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1572,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>125</v>
       </c>
@@ -1547,7 +1606,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="45">
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>128</v>
       </c>
@@ -1581,7 +1640,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45">
+    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>128</v>
       </c>
@@ -1615,7 +1674,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45">
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -1649,7 +1708,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30">
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1683,7 +1742,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="45">
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1720,7 +1779,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="45">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -1754,7 +1813,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30">
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1788,7 +1847,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="45">
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1822,7 +1881,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30">
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>126</v>
       </c>
@@ -1856,7 +1915,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="45">
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>127</v>
       </c>
@@ -1890,7 +1949,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
@@ -1924,7 +1983,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="45">
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>110</v>
       </c>
@@ -1958,7 +2017,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="45">
+    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>111</v>
       </c>
@@ -1992,7 +2051,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30">
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>121</v>
       </c>
@@ -2026,7 +2085,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="45">
+    <row r="20" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>122</v>
       </c>
@@ -2060,7 +2119,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="45">
+    <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>122</v>
       </c>
@@ -2094,7 +2153,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30">
+    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>123</v>
       </c>
@@ -2128,7 +2187,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="45">
+    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>124</v>
       </c>
@@ -2162,7 +2221,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30">
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>123</v>
       </c>
@@ -2196,7 +2255,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="45">
+    <row r="25" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
@@ -2227,7 +2286,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="45">
+    <row r="26" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
@@ -2255,7 +2314,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="45">
+    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>119</v>
       </c>
@@ -2289,7 +2348,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="45">
+    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>120</v>
       </c>
@@ -2325,7 +2384,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="45">
+    <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>120</v>
       </c>
@@ -2359,7 +2418,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="45">
+    <row r="30" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
@@ -2393,7 +2452,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="45">
+    <row r="31" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
@@ -2427,7 +2486,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30">
+    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>107</v>
       </c>
@@ -2458,7 +2517,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="30">
+    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>108</v>
       </c>
@@ -2489,7 +2548,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="45">
+    <row r="34" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>118</v>
       </c>
@@ -2517,7 +2576,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="45">
+    <row r="35" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>153</v>
       </c>
@@ -2545,7 +2604,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="30">
+    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>109</v>
       </c>
@@ -2576,7 +2635,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="45">
+    <row r="37" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>117</v>
       </c>
@@ -2607,7 +2666,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="45">
+    <row r="38" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>116</v>
       </c>
@@ -2638,7 +2697,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="45">
+    <row r="39" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>115</v>
       </c>
@@ -2669,7 +2728,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="45">
+    <row r="40" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>114</v>
       </c>
@@ -2700,7 +2759,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="45">
+    <row r="41" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>112</v>
       </c>
@@ -2731,7 +2790,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="45">
+    <row r="42" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>113</v>
       </c>
@@ -2762,7 +2821,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="30">
+    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>129</v>
       </c>
@@ -2792,7 +2851,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="30">
+    <row r="44" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>130</v>
       </c>
@@ -2822,7 +2881,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="30">
+    <row r="45" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>131</v>
       </c>
@@ -2852,7 +2911,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>65</v>
       </c>
@@ -2880,7 +2939,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
@@ -2908,7 +2967,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="30">
+    <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>67</v>
       </c>
@@ -2936,7 +2995,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="30">
+    <row r="49" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>68</v>
       </c>
@@ -2964,7 +3023,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="30">
+    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
@@ -2998,7 +3057,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30">
+    <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>84</v>
       </c>
@@ -3029,7 +3088,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="30">
+    <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>85</v>
       </c>
@@ -3060,7 +3119,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30">
+    <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>86</v>
       </c>
@@ -3091,7 +3150,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="30">
+    <row r="54" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>87</v>
       </c>
@@ -3122,7 +3181,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="30">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>88</v>
       </c>
@@ -3153,7 +3212,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="30">
+    <row r="56" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>89</v>
       </c>
@@ -3184,7 +3243,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="30">
+    <row r="57" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>90</v>
       </c>
@@ -3215,7 +3274,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="30">
+    <row r="58" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>91</v>
       </c>
@@ -3246,7 +3305,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="30">
+    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>92</v>
       </c>
@@ -3277,7 +3336,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="30">
+    <row r="60" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>93</v>
       </c>
@@ -3305,7 +3364,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30">
+    <row r="61" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>95</v>
       </c>
@@ -3333,7 +3392,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="30">
+    <row r="62" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>97</v>
       </c>
@@ -3364,7 +3423,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="45">
+    <row r="63" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>98</v>
       </c>
@@ -3401,7 +3460,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="45">
+    <row r="64" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>98</v>
       </c>
@@ -3432,7 +3491,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="45">
+    <row r="65" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>101</v>
       </c>
@@ -3463,7 +3522,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="45">
+    <row r="66" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>102</v>
       </c>
@@ -3494,7 +3553,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="45">
+    <row r="67" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>103</v>
       </c>
@@ -3525,7 +3584,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="30">
+    <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>132</v>
       </c>
@@ -3556,7 +3615,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="45">
+    <row r="69" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>133</v>
       </c>
@@ -3587,7 +3646,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="30">
+    <row r="70" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>137</v>
       </c>
@@ -3618,7 +3677,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="45">
+    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>145</v>
       </c>
@@ -3652,7 +3711,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="45">
+    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>144</v>
       </c>
@@ -3686,7 +3745,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="45">
+    <row r="73" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>143</v>
       </c>
@@ -3717,7 +3776,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="45">
+    <row r="74" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>146</v>
       </c>
@@ -3748,7 +3807,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="45">
+    <row r="75" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>190</v>
       </c>
@@ -3779,7 +3838,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="45">
+    <row r="76" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>193</v>
       </c>
@@ -3810,7 +3869,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30">
+    <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>195</v>
       </c>
@@ -3843,7 +3902,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="30">
+    <row r="78" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>196</v>
       </c>
@@ -3876,7 +3935,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="30">
+    <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>197</v>
       </c>
@@ -3909,7 +3968,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="30">
+    <row r="80" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>201</v>
       </c>
@@ -3940,7 +3999,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="30">
+    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>202</v>
       </c>
@@ -3971,7 +4030,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="30">
+    <row r="82" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>203</v>
       </c>
@@ -4002,7 +4061,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="30">
+    <row r="83" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>206</v>
       </c>
@@ -4035,7 +4094,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="45">
+    <row r="84" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>207</v>
       </c>
@@ -4068,7 +4127,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="45">
+    <row r="85" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>208</v>
       </c>
@@ -4101,7 +4160,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="45">
+    <row r="86" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>213</v>
       </c>
@@ -4132,9 +4191,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="30">
+    <row r="87" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>60</v>
@@ -4146,8 +4205,10 @@
         <v>7</v>
       </c>
       <c r="E87" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>261</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>241</v>
@@ -4163,9 +4224,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="30">
+    <row r="88" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>60</v>
@@ -4177,8 +4238,10 @@
         <v>7</v>
       </c>
       <c r="E88" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>261</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>241</v>
@@ -4194,9 +4257,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="30">
+    <row r="89" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>60</v>
@@ -4208,8 +4271,10 @@
         <v>7</v>
       </c>
       <c r="E89" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>261</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>241</v>
@@ -4225,9 +4290,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="45">
+    <row r="90" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>60</v>
@@ -4239,8 +4304,10 @@
         <v>7</v>
       </c>
       <c r="E90" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>261</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>241</v>
@@ -4256,7 +4323,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>225</v>
       </c>
@@ -4287,7 +4354,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>226</v>
       </c>
@@ -4318,7 +4385,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="30">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>227</v>
       </c>
@@ -4349,7 +4416,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="30">
+    <row r="94" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>232</v>
       </c>
@@ -4380,7 +4447,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="45">
+    <row r="95" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>233</v>
       </c>
@@ -4411,7 +4478,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="45">
+    <row r="96" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>234</v>
       </c>
@@ -4442,7 +4509,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="30">
+    <row r="97" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>254</v>
       </c>
@@ -4473,7 +4540,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="45">
+    <row r="98" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>255</v>
       </c>
@@ -4504,7 +4571,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="45">
+    <row r="99" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
         <v>256</v>
       </c>
@@ -4535,8 +4602,160 @@
         <v>259</v>
       </c>
     </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E100" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H100" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E101" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H101" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E102" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H102" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E103" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H103" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E104" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H104" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K76"/>
+  <autoFilter ref="A1:K76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
